--- a/2em/2DES/01-bcd/aula10/exercicios/exercicio5_pedidos.xlsx
+++ b/2em/2DES/01-bcd/aula10/exercicios/exercicio5_pedidos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\03-bcd\aula04\exercicios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellifabio\sesi2024\2em\2DES\01-bcd\aula10\exercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00663445-156B-48FB-AC4A-E156D19634A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DA8D0B-705E-4738-B891-FE102E0CF524}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,18 +16,6 @@
     <sheet name="dados_brutos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -403,9 +391,6 @@
     <t>id_pedido</t>
   </si>
   <si>
-    <t>id_intregador</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
@@ -473,6 +458,9 @@
   </si>
   <si>
     <t>19-32887-0288, 19-76473-3009</t>
+  </si>
+  <si>
+    <t>id_entregador</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1312,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1368,40 +1358,40 @@
         <v>122</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -1418,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1589,7 +1579,7 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F5">
         <v>11</v>
@@ -1697,7 +1687,7 @@
         <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -1868,7 +1858,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -2159,7 +2149,7 @@
         <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -2267,7 +2257,7 @@
         <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
@@ -2552,7 +2542,7 @@
         <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D22" t="s">
         <v>48</v>
@@ -2666,7 +2656,7 @@
         <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
         <v>51</v>
@@ -2723,7 +2713,7 @@
         <v>115</v>
       </c>
       <c r="C25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D25" t="s">
         <v>52</v>
@@ -2780,7 +2770,7 @@
         <v>116</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
         <v>53</v>
@@ -2894,7 +2884,7 @@
         <v>118</v>
       </c>
       <c r="C28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
         <v>58</v>
@@ -2951,7 +2941,7 @@
         <v>119</v>
       </c>
       <c r="C29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D29" t="s">
         <v>59</v>
